--- a/app/scripts/lectures/days.xlsx
+++ b/app/scripts/lectures/days.xlsx
@@ -106,13 +106,6 @@
     <row r="7" spans="1:1" customHeight="0">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>Friday</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" spans="1:1" customHeight="0">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
           <t>Saturday</t>
         </is>
       </c>
